--- a/DecisionTree/DecisionTreeBinary/Entropy_and_Gini.xlsx
+++ b/DecisionTree/DecisionTreeBinary/Entropy_and_Gini.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GD\DS\zOutros_Materiais\N\MateriaisParaEstudo\Github\DecisionTree\DecisionTreeBinary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GD\DS\DS_Share\Github\DecisionTree\DecisionTreeBinary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C003927-2C20-4DF4-B561-CCE9D5DBA875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C23E18A-3679-43AF-8AFB-35444F7C36B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1437,7 +1437,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1640,7 +1640,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
